--- a/Excel/镇魂街/skill.技能.xlsx
+++ b/Excel/镇魂街/skill.技能.xlsx
@@ -4246,7 +4246,7 @@
   <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/skill.技能.xlsx
+++ b/Excel/镇魂街/skill.技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="327">
   <si>
     <t>sheet名</t>
   </si>
@@ -510,9 +510,6 @@
     <t>立即获得2个黄色水晶</t>
   </si>
   <si>
-    <t>锻灵</t>
-  </si>
-  <si>
     <t>立即获得2个蓝色水晶</t>
   </si>
   <si>
@@ -1051,6 +1048,22 @@
   </si>
   <si>
     <t>技能经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即获得2个蓝色水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fzl_desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1659,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1670,16 +1683,17 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1690,31 +1704,34 @@
         <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1725,7 +1742,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1734,22 +1751,25 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1759,30 +1779,31 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1301001</v>
       </c>
@@ -1792,30 +1813,33 @@
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1302001</v>
       </c>
@@ -1825,8 +1849,8 @@
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1835,20 +1859,23 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1301002</v>
       </c>
@@ -1858,30 +1885,33 @@
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1302002</v>
       </c>
@@ -1891,30 +1921,33 @@
       <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1301003</v>
       </c>
@@ -1924,30 +1957,33 @@
       <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1302003</v>
       </c>
@@ -1957,30 +1993,33 @@
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1301004</v>
       </c>
@@ -1990,30 +2029,33 @@
       <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1302004</v>
       </c>
@@ -2023,30 +2065,33 @@
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1301005</v>
       </c>
@@ -2056,30 +2101,33 @@
       <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1302005</v>
       </c>
@@ -2089,30 +2137,33 @@
       <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1301006</v>
       </c>
@@ -2122,30 +2173,33 @@
       <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1302006</v>
       </c>
@@ -2155,30 +2209,33 @@
       <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1301007</v>
       </c>
@@ -2188,8 +2245,8 @@
       <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -2198,20 +2255,23 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1302007</v>
       </c>
@@ -2221,30 +2281,33 @@
       <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1301008</v>
       </c>
@@ -2254,30 +2317,33 @@
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1302008</v>
       </c>
@@ -2287,30 +2353,33 @@
       <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1301009</v>
       </c>
@@ -2320,30 +2389,33 @@
       <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1302009</v>
       </c>
@@ -2353,30 +2425,33 @@
       <c r="C21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1301010</v>
       </c>
@@ -2386,30 +2461,33 @@
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
+      <c r="D22" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1302010</v>
       </c>
@@ -2419,30 +2497,33 @@
       <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
+      <c r="D23" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1301011</v>
       </c>
@@ -2452,30 +2533,33 @@
       <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1302011</v>
       </c>
@@ -2485,30 +2569,33 @@
       <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
+      <c r="D25" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1301012</v>
       </c>
@@ -2518,30 +2605,33 @@
       <c r="C26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
+      <c r="D26" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1302012</v>
       </c>
@@ -2551,30 +2641,33 @@
       <c r="C27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1301013</v>
       </c>
@@ -2584,30 +2677,33 @@
       <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
+      <c r="D28" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1302013</v>
       </c>
@@ -2617,30 +2713,33 @@
       <c r="C29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
+      <c r="D29" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1301014</v>
       </c>
@@ -2650,30 +2749,33 @@
       <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
+      <c r="D30" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1302014</v>
       </c>
@@ -2683,30 +2785,33 @@
       <c r="C31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1301015</v>
       </c>
@@ -2716,30 +2821,33 @@
       <c r="C32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
+      <c r="D32" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1302015</v>
       </c>
@@ -2749,30 +2857,33 @@
       <c r="C33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
+      <c r="D33" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1303001</v>
       </c>
@@ -2782,30 +2893,33 @@
       <c r="C34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
+      <c r="D34" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1303002</v>
       </c>
@@ -2815,30 +2929,33 @@
       <c r="C35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="3">
-        <v>1</v>
+      <c r="D35" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1303003</v>
       </c>
@@ -2848,30 +2965,33 @@
       <c r="C36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
+      <c r="D36" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1303004</v>
       </c>
@@ -2881,30 +3001,33 @@
       <c r="C37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
+      <c r="D37" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1303005</v>
       </c>
@@ -2914,30 +3037,33 @@
       <c r="C38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
+      <c r="D38" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1303006</v>
       </c>
@@ -2947,30 +3073,33 @@
       <c r="C39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
+      <c r="D39" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1303007</v>
       </c>
@@ -2980,30 +3109,33 @@
       <c r="C40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
+      <c r="D40" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1303008</v>
       </c>
@@ -3013,30 +3145,33 @@
       <c r="C41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
+      <c r="D41" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1303009</v>
       </c>
@@ -3046,30 +3181,33 @@
       <c r="C42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="3">
-        <v>1</v>
+      <c r="D42" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1303010</v>
       </c>
@@ -3079,30 +3217,33 @@
       <c r="C43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="3">
-        <v>1</v>
+      <c r="D43" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1303011</v>
       </c>
@@ -3112,30 +3253,33 @@
       <c r="C44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="3">
-        <v>1</v>
+      <c r="D44" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1303012</v>
       </c>
@@ -3145,30 +3289,33 @@
       <c r="C45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
+      <c r="D45" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1303013</v>
       </c>
@@ -3178,30 +3325,33 @@
       <c r="C46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
+      <c r="D46" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1303014</v>
       </c>
@@ -3211,30 +3361,33 @@
       <c r="C47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
+      <c r="D47" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1303015</v>
       </c>
@@ -3244,30 +3397,33 @@
       <c r="C48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
+      <c r="D48" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1303016</v>
       </c>
@@ -3277,30 +3433,33 @@
       <c r="C49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
+      <c r="D49" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1303017</v>
       </c>
@@ -3310,30 +3469,33 @@
       <c r="C50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
+      <c r="D50" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1303018</v>
       </c>
@@ -3343,30 +3505,33 @@
       <c r="C51" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
+      <c r="D51" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1303019</v>
       </c>
@@ -3376,30 +3541,33 @@
       <c r="C52" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
+      <c r="D52" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1303020</v>
       </c>
@@ -3409,30 +3577,33 @@
       <c r="C53" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
+      <c r="D53" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1303021</v>
       </c>
@@ -3442,30 +3613,33 @@
       <c r="C54" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="3">
-        <v>1</v>
+      <c r="D54" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1304001</v>
       </c>
@@ -3475,32 +3649,35 @@
       <c r="C55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="3">
-        <v>2</v>
+      <c r="D55" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
         <v>3</v>
       </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
       <c r="G55" s="3">
         <v>0</v>
       </c>
       <c r="H55" s="3">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J55" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="K55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1304002</v>
       </c>
@@ -3510,32 +3687,35 @@
       <c r="C56" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="3">
-        <v>2</v>
+      <c r="D56" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3">
         <v>3</v>
       </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
       <c r="G56" s="3">
         <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J56" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="K56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1304003</v>
       </c>
@@ -3545,32 +3725,35 @@
       <c r="C57" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="3">
-        <v>2</v>
+      <c r="D57" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1304004</v>
       </c>
@@ -3580,32 +3763,35 @@
       <c r="C58" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="3">
-        <v>2</v>
+      <c r="D58" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="K58" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1304005</v>
       </c>
@@ -3615,32 +3801,35 @@
       <c r="C59" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="3">
-        <v>2</v>
+      <c r="D59" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="K59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1304006</v>
       </c>
@@ -3650,32 +3839,35 @@
       <c r="C60" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="3">
-        <v>2</v>
+      <c r="D60" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="K60" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1304007</v>
       </c>
@@ -3685,32 +3877,35 @@
       <c r="C61" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="3">
-        <v>2</v>
+      <c r="D61" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="K61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1304008</v>
       </c>
@@ -3720,518 +3915,563 @@
       <c r="C62" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="3">
-        <v>2</v>
+      <c r="D62" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>1</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="K62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1304009</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2</v>
-      </c>
       <c r="E63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J63" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="K63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1304010</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2</v>
+      <c r="D64" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
       </c>
       <c r="F64" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <v>1</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J64" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="K64" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1304011</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2</v>
+      <c r="D65" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J65" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="K65" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1304012</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="3">
-        <v>2</v>
+      <c r="D66" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K66" s="3">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="66" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1304013</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2</v>
+      <c r="D67" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="E67" s="3">
         <v>2</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K67" s="3">
         <v>3</v>
       </c>
-      <c r="K67" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1304014</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D68" s="3">
-        <v>2</v>
+      <c r="D68" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E68" s="3">
         <v>2</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K68" s="3">
         <v>3</v>
       </c>
-      <c r="K68" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1304015</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="3">
-        <v>2</v>
+      <c r="D69" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E69" s="3">
         <v>2</v>
       </c>
       <c r="F69" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K69" s="3">
         <v>4</v>
       </c>
-      <c r="K69" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1304016</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="3">
-        <v>2</v>
+      <c r="D70" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K70" s="3">
         <v>4</v>
       </c>
-      <c r="K70" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1304017</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" s="3">
-        <v>2</v>
+      <c r="D71" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E71" s="3">
         <v>2</v>
       </c>
       <c r="F71" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K71" s="3">
         <v>4</v>
       </c>
-      <c r="K71" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1304018</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2</v>
+      <c r="D72" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>1</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K72" s="3">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1304019</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2</v>
+      <c r="D73" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
       </c>
       <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J73" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="K73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1306001</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1</v>
+      <c r="D74" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
       </c>
       <c r="H74" s="3">
-        <v>1</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J74" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="K74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1306002</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J75" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="K75" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1306003</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>1</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4245,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4265,68 +4505,68 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
         <v>253</v>
       </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4340,10 +4580,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -4361,10 +4601,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F5" s="3">
         <v>20</v>
@@ -4382,10 +4622,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F6" s="3">
         <v>30</v>
@@ -4403,10 +4643,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -4424,10 +4664,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -4445,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
@@ -4466,10 +4706,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="3">
         <v>20</v>
@@ -4487,10 +4727,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="3">
         <v>30</v>
@@ -4508,10 +4748,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F12" s="3">
         <v>50</v>
@@ -4529,10 +4769,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="3">
         <v>100</v>
@@ -4550,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="3">
         <v>10</v>
@@ -4571,10 +4811,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15" s="3">
         <v>20</v>
@@ -4592,10 +4832,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F16" s="3">
         <v>30</v>
@@ -4613,10 +4853,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F17" s="3">
         <v>50</v>
@@ -4634,10 +4874,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
@@ -4655,10 +4895,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F19" s="3">
         <v>10</v>
@@ -4676,10 +4916,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F20" s="3">
         <v>20</v>
@@ -4697,10 +4937,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F21" s="3">
         <v>30</v>
@@ -4718,10 +4958,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F22" s="3">
         <v>50</v>
@@ -4739,10 +4979,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
@@ -4760,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F24" s="3">
         <v>10</v>
@@ -4781,10 +5021,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F25" s="3">
         <v>20</v>
@@ -4802,10 +5042,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F26" s="3">
         <v>30</v>
@@ -4823,10 +5063,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F27" s="3">
         <v>50</v>
@@ -4844,10 +5084,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F28" s="3">
         <v>100</v>
@@ -4865,10 +5105,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F29" s="3">
         <v>10</v>
@@ -4886,10 +5126,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F30" s="3">
         <v>20</v>
@@ -4907,10 +5147,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F31" s="3">
         <v>30</v>
@@ -4928,10 +5168,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F32" s="3">
         <v>50</v>
@@ -4949,10 +5189,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
@@ -4970,10 +5210,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="3">
         <v>10</v>
@@ -4991,10 +5231,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F35" s="3">
         <v>20</v>
@@ -5012,10 +5252,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F36" s="3">
         <v>30</v>
@@ -5033,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F37" s="3">
         <v>50</v>
@@ -5054,10 +5294,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F38" s="3">
         <v>100</v>
@@ -5075,10 +5315,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F39" s="3">
         <v>10</v>
@@ -5096,10 +5336,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F40" s="3">
         <v>20</v>
@@ -5117,10 +5357,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F41" s="3">
         <v>30</v>
@@ -5138,10 +5378,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F42" s="3">
         <v>50</v>
@@ -5159,10 +5399,10 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -5180,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F44" s="3">
         <v>10</v>
@@ -5201,10 +5441,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F45" s="3">
         <v>20</v>
@@ -5222,10 +5462,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F46" s="3">
         <v>30</v>
@@ -5243,10 +5483,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F47" s="3">
         <v>50</v>
@@ -5264,10 +5504,10 @@
         <v>5</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -5285,10 +5525,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F49" s="3">
         <v>10</v>
@@ -5306,10 +5546,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F50" s="3">
         <v>20</v>
@@ -5327,10 +5567,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F51" s="3">
         <v>30</v>
@@ -5348,10 +5588,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F52" s="3">
         <v>50</v>
@@ -5369,10 +5609,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F53" s="3">
         <v>100</v>
@@ -5390,10 +5630,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F54" s="3">
         <v>10</v>
@@ -5411,10 +5651,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F55" s="3">
         <v>20</v>
@@ -5432,10 +5672,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F56" s="3">
         <v>30</v>
@@ -5453,10 +5693,10 @@
         <v>4</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F57" s="3">
         <v>50</v>
@@ -5474,10 +5714,10 @@
         <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -5495,10 +5735,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F59" s="3">
         <v>10</v>
@@ -5516,10 +5756,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F60" s="3">
         <v>20</v>
@@ -5537,10 +5777,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F61" s="3">
         <v>30</v>
@@ -5558,10 +5798,10 @@
         <v>4</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F62" s="3">
         <v>50</v>
@@ -5579,10 +5819,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F63" s="3">
         <v>100</v>
@@ -5600,10 +5840,10 @@
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F64" s="3">
         <v>10</v>
@@ -5621,10 +5861,10 @@
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F65" s="3">
         <v>20</v>
@@ -5642,10 +5882,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F66" s="3">
         <v>30</v>
@@ -5663,10 +5903,10 @@
         <v>4</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F67" s="3">
         <v>50</v>
@@ -5684,10 +5924,10 @@
         <v>5</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F68" s="3">
         <v>100</v>
@@ -5705,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F69" s="3">
         <v>10</v>
@@ -5726,10 +5966,10 @@
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F70" s="3">
         <v>20</v>
@@ -5747,10 +5987,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F71" s="3">
         <v>30</v>
@@ -5768,10 +6008,10 @@
         <v>4</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F72" s="3">
         <v>50</v>
@@ -5789,10 +6029,10 @@
         <v>5</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F73" s="3">
         <v>100</v>
@@ -5810,10 +6050,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F74" s="3">
         <v>10</v>
@@ -5831,10 +6071,10 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F75" s="3">
         <v>20</v>
@@ -5852,10 +6092,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F76" s="3">
         <v>30</v>
@@ -5873,10 +6113,10 @@
         <v>4</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F77" s="3">
         <v>50</v>
@@ -5894,10 +6134,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F78" s="3">
         <v>100</v>
@@ -5915,10 +6155,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F79" s="3">
         <v>10</v>
@@ -5936,10 +6176,10 @@
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F80" s="3">
         <v>20</v>
@@ -5957,10 +6197,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F81" s="3">
         <v>30</v>
@@ -5978,10 +6218,10 @@
         <v>4</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F82" s="3">
         <v>50</v>
@@ -5999,10 +6239,10 @@
         <v>5</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -6020,10 +6260,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F84" s="3">
         <v>10</v>
@@ -6041,10 +6281,10 @@
         <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F85" s="3">
         <v>20</v>
@@ -6062,10 +6302,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F86" s="3">
         <v>30</v>
@@ -6083,10 +6323,10 @@
         <v>4</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F87" s="3">
         <v>50</v>
@@ -6104,10 +6344,10 @@
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F88" s="3">
         <v>100</v>
@@ -6125,10 +6365,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F89" s="3">
         <v>10</v>
@@ -6146,10 +6386,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F90" s="3">
         <v>20</v>
@@ -6167,10 +6407,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F91" s="3">
         <v>30</v>
@@ -6188,10 +6428,10 @@
         <v>4</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F92" s="3">
         <v>50</v>
@@ -6209,10 +6449,10 @@
         <v>5</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F93" s="3">
         <v>100</v>
@@ -6230,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F94" s="3">
         <v>10</v>
@@ -6251,10 +6491,10 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F95" s="3">
         <v>20</v>
@@ -6272,10 +6512,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F96" s="3">
         <v>30</v>
@@ -6293,10 +6533,10 @@
         <v>4</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F97" s="3">
         <v>50</v>
@@ -6314,10 +6554,10 @@
         <v>5</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F98" s="3">
         <v>100</v>
@@ -6335,10 +6575,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F99" s="3">
         <v>10</v>
@@ -6356,10 +6596,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F100" s="3">
         <v>20</v>
@@ -6377,10 +6617,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F101" s="3">
         <v>30</v>
@@ -6398,10 +6638,10 @@
         <v>4</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F102" s="3">
         <v>50</v>
@@ -6419,10 +6659,10 @@
         <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F103" s="3">
         <v>100</v>
@@ -6440,10 +6680,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F104" s="3">
         <v>10</v>
@@ -6461,10 +6701,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F105" s="3">
         <v>20</v>
@@ -6482,10 +6722,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F106" s="3">
         <v>30</v>
@@ -6503,10 +6743,10 @@
         <v>4</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F107" s="3">
         <v>50</v>
@@ -6524,10 +6764,10 @@
         <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F108" s="3">
         <v>100</v>
@@ -6545,10 +6785,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F109" s="3">
         <v>10</v>
@@ -6566,10 +6806,10 @@
         <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F110" s="3">
         <v>20</v>
@@ -6587,10 +6827,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F111" s="3">
         <v>30</v>
@@ -6608,10 +6848,10 @@
         <v>4</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F112" s="3">
         <v>50</v>
@@ -6629,10 +6869,10 @@
         <v>5</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F113" s="3">
         <v>100</v>
@@ -6650,10 +6890,10 @@
         <v>1</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F114" s="3">
         <v>10</v>
@@ -6671,10 +6911,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F115" s="3">
         <v>20</v>
@@ -6692,10 +6932,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F116" s="3">
         <v>30</v>
@@ -6713,10 +6953,10 @@
         <v>4</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F117" s="3">
         <v>50</v>
@@ -6734,10 +6974,10 @@
         <v>5</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F118" s="3">
         <v>100</v>
@@ -6755,10 +6995,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F119" s="3">
         <v>10</v>
@@ -6776,10 +7016,10 @@
         <v>2</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F120" s="3">
         <v>20</v>
@@ -6797,10 +7037,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F121" s="3">
         <v>30</v>
@@ -6818,10 +7058,10 @@
         <v>4</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F122" s="3">
         <v>50</v>
@@ -6839,10 +7079,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F123" s="3">
         <v>100</v>
@@ -6860,10 +7100,10 @@
         <v>1</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F124" s="3">
         <v>10</v>
@@ -6881,10 +7121,10 @@
         <v>2</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F125" s="3">
         <v>20</v>
@@ -6902,10 +7142,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F126" s="3">
         <v>30</v>
@@ -6923,10 +7163,10 @@
         <v>4</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F127" s="3">
         <v>50</v>
@@ -6944,10 +7184,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F128" s="3">
         <v>100</v>
@@ -6965,10 +7205,10 @@
         <v>1</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F129" s="3">
         <v>10</v>
@@ -6986,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F130" s="3">
         <v>20</v>
@@ -7007,10 +7247,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F131" s="3">
         <v>30</v>
@@ -7028,10 +7268,10 @@
         <v>4</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F132" s="3">
         <v>50</v>
@@ -7049,10 +7289,10 @@
         <v>5</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F133" s="3">
         <v>100</v>
@@ -7070,10 +7310,10 @@
         <v>1</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F134" s="3">
         <v>10</v>
@@ -7091,10 +7331,10 @@
         <v>2</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F135" s="3">
         <v>20</v>
@@ -7112,10 +7352,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F136" s="3">
         <v>30</v>
@@ -7133,10 +7373,10 @@
         <v>4</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F137" s="3">
         <v>50</v>
@@ -7154,10 +7394,10 @@
         <v>5</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F138" s="3">
         <v>100</v>
@@ -7175,10 +7415,10 @@
         <v>1</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F139" s="3">
         <v>10</v>
@@ -7196,10 +7436,10 @@
         <v>2</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F140" s="3">
         <v>20</v>
@@ -7217,10 +7457,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F141" s="3">
         <v>30</v>
@@ -7238,10 +7478,10 @@
         <v>4</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F142" s="3">
         <v>50</v>
@@ -7259,10 +7499,10 @@
         <v>5</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F143" s="3">
         <v>100</v>
@@ -7280,10 +7520,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F144" s="3">
         <v>10</v>
@@ -7301,10 +7541,10 @@
         <v>2</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F145" s="3">
         <v>20</v>
@@ -7322,10 +7562,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F146" s="3">
         <v>30</v>
@@ -7343,10 +7583,10 @@
         <v>4</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F147" s="3">
         <v>50</v>
@@ -7364,10 +7604,10 @@
         <v>5</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F148" s="3">
         <v>100</v>
@@ -7385,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F149" s="3">
         <v>10</v>
@@ -7406,10 +7646,10 @@
         <v>2</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F150" s="3">
         <v>20</v>
@@ -7427,10 +7667,10 @@
         <v>3</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F151" s="3">
         <v>30</v>
@@ -7448,10 +7688,10 @@
         <v>4</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F152" s="3">
         <v>50</v>
@@ -7469,10 +7709,10 @@
         <v>5</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F153" s="3">
         <v>100</v>
@@ -7490,10 +7730,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F154" s="3">
         <v>10</v>
@@ -7511,10 +7751,10 @@
         <v>2</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F155" s="3">
         <v>20</v>
@@ -7532,10 +7772,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F156" s="3">
         <v>30</v>
@@ -7553,10 +7793,10 @@
         <v>4</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F157" s="3">
         <v>50</v>
@@ -7574,10 +7814,10 @@
         <v>5</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F158" s="3">
         <v>100</v>
@@ -7595,10 +7835,10 @@
         <v>1</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F159" s="3">
         <v>10</v>
@@ -7616,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F160" s="3">
         <v>20</v>
@@ -7637,10 +7877,10 @@
         <v>3</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F161" s="3">
         <v>30</v>
@@ -7658,10 +7898,10 @@
         <v>4</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F162" s="3">
         <v>50</v>
@@ -7679,10 +7919,10 @@
         <v>5</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F163" s="3">
         <v>100</v>
@@ -7700,10 +7940,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F164" s="3">
         <v>10</v>
@@ -7721,10 +7961,10 @@
         <v>2</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F165" s="3">
         <v>20</v>
@@ -7742,10 +7982,10 @@
         <v>3</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F166" s="3">
         <v>30</v>
@@ -7763,10 +8003,10 @@
         <v>4</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F167" s="3">
         <v>50</v>
@@ -7784,10 +8024,10 @@
         <v>5</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F168" s="3">
         <v>100</v>
@@ -7805,10 +8045,10 @@
         <v>1</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F169" s="3">
         <v>10</v>
@@ -7826,10 +8066,10 @@
         <v>2</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F170" s="3">
         <v>20</v>
@@ -7847,10 +8087,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F171" s="3">
         <v>30</v>
@@ -7868,10 +8108,10 @@
         <v>4</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F172" s="3">
         <v>50</v>
@@ -7889,10 +8129,10 @@
         <v>5</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F173" s="3">
         <v>100</v>
@@ -7910,10 +8150,10 @@
         <v>1</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F174" s="3">
         <v>10</v>
@@ -7931,10 +8171,10 @@
         <v>2</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F175" s="3">
         <v>20</v>
@@ -7952,10 +8192,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F176" s="3">
         <v>30</v>
@@ -7973,10 +8213,10 @@
         <v>4</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F177" s="3">
         <v>50</v>
@@ -7994,10 +8234,10 @@
         <v>5</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F178" s="3">
         <v>100</v>
@@ -8015,10 +8255,10 @@
         <v>1</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F179" s="3">
         <v>10</v>
@@ -8036,10 +8276,10 @@
         <v>2</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F180" s="3">
         <v>20</v>
@@ -8057,10 +8297,10 @@
         <v>3</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F181" s="3">
         <v>30</v>
@@ -8078,10 +8318,10 @@
         <v>4</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F182" s="3">
         <v>50</v>
@@ -8099,10 +8339,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F183" s="3">
         <v>100</v>
@@ -8120,10 +8360,10 @@
         <v>1</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F184" s="3">
         <v>10</v>
@@ -8141,10 +8381,10 @@
         <v>2</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F185" s="3">
         <v>20</v>
@@ -8162,10 +8402,10 @@
         <v>3</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F186" s="3">
         <v>30</v>
@@ -8183,10 +8423,10 @@
         <v>4</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F187" s="3">
         <v>50</v>
@@ -8204,10 +8444,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F188" s="3">
         <v>100</v>
@@ -8225,10 +8465,10 @@
         <v>1</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F189" s="3">
         <v>10</v>
@@ -8246,10 +8486,10 @@
         <v>2</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F190" s="3">
         <v>20</v>
@@ -8267,10 +8507,10 @@
         <v>3</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F191" s="3">
         <v>30</v>
@@ -8288,10 +8528,10 @@
         <v>4</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F192" s="3">
         <v>50</v>
@@ -8309,10 +8549,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F193" s="3">
         <v>100</v>
@@ -8330,10 +8570,10 @@
         <v>1</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F194" s="3">
         <v>10</v>
@@ -8351,10 +8591,10 @@
         <v>2</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F195" s="3">
         <v>20</v>
@@ -8372,10 +8612,10 @@
         <v>3</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F196" s="3">
         <v>30</v>
@@ -8393,10 +8633,10 @@
         <v>4</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F197" s="3">
         <v>50</v>
@@ -8414,10 +8654,10 @@
         <v>5</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F198" s="3">
         <v>100</v>
@@ -8435,10 +8675,10 @@
         <v>1</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F199" s="3">
         <v>10</v>
@@ -8456,10 +8696,10 @@
         <v>2</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F200" s="3">
         <v>20</v>
@@ -8477,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F201" s="3">
         <v>30</v>
@@ -8498,10 +8738,10 @@
         <v>4</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F202" s="3">
         <v>50</v>
@@ -8519,10 +8759,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F203" s="3">
         <v>100</v>
@@ -8540,10 +8780,10 @@
         <v>1</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F204" s="3">
         <v>10</v>
@@ -8561,10 +8801,10 @@
         <v>2</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F205" s="3">
         <v>20</v>
@@ -8582,10 +8822,10 @@
         <v>3</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F206" s="3">
         <v>30</v>
@@ -8603,10 +8843,10 @@
         <v>4</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F207" s="3">
         <v>50</v>
@@ -8624,10 +8864,10 @@
         <v>5</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F208" s="3">
         <v>100</v>
@@ -8645,10 +8885,10 @@
         <v>1</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F209" s="3">
         <v>10</v>
@@ -8666,10 +8906,10 @@
         <v>2</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F210" s="3">
         <v>20</v>
@@ -8687,10 +8927,10 @@
         <v>3</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F211" s="3">
         <v>30</v>
@@ -8708,10 +8948,10 @@
         <v>4</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F212" s="3">
         <v>50</v>
@@ -8729,10 +8969,10 @@
         <v>5</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F213" s="3">
         <v>100</v>
@@ -8750,10 +8990,10 @@
         <v>1</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F214" s="3">
         <v>10</v>
@@ -8771,10 +9011,10 @@
         <v>2</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F215" s="3">
         <v>20</v>
@@ -8792,10 +9032,10 @@
         <v>3</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F216" s="3">
         <v>30</v>
@@ -8813,10 +9053,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F217" s="3">
         <v>50</v>
@@ -8834,10 +9074,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F218" s="3">
         <v>100</v>
@@ -8855,10 +9095,10 @@
         <v>1</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F219" s="3">
         <v>10</v>
@@ -8876,10 +9116,10 @@
         <v>2</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F220" s="3">
         <v>20</v>
@@ -8897,10 +9137,10 @@
         <v>3</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F221" s="3">
         <v>30</v>
@@ -8918,10 +9158,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F222" s="3">
         <v>50</v>
@@ -8939,10 +9179,10 @@
         <v>5</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F223" s="3">
         <v>100</v>
@@ -8960,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F224" s="3">
         <v>10</v>
@@ -8981,10 +9221,10 @@
         <v>2</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F225" s="3">
         <v>20</v>
@@ -9002,10 +9242,10 @@
         <v>3</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F226" s="3">
         <v>30</v>
@@ -9023,10 +9263,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F227" s="3">
         <v>50</v>
@@ -9044,10 +9284,10 @@
         <v>5</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F228" s="3">
         <v>100</v>
@@ -9065,10 +9305,10 @@
         <v>1</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F229" s="3">
         <v>10</v>
@@ -9086,10 +9326,10 @@
         <v>2</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F230" s="3">
         <v>20</v>
@@ -9107,10 +9347,10 @@
         <v>3</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F231" s="3">
         <v>30</v>
@@ -9128,10 +9368,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F232" s="3">
         <v>50</v>
@@ -9149,10 +9389,10 @@
         <v>5</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F233" s="3">
         <v>100</v>
@@ -9170,10 +9410,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F234" s="3">
         <v>10</v>
@@ -9191,10 +9431,10 @@
         <v>2</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F235" s="3">
         <v>20</v>
@@ -9212,10 +9452,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F236" s="3">
         <v>30</v>
@@ -9233,10 +9473,10 @@
         <v>4</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F237" s="3">
         <v>50</v>
@@ -9254,10 +9494,10 @@
         <v>5</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F238" s="3">
         <v>100</v>
@@ -9275,10 +9515,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F239" s="3">
         <v>10</v>
@@ -9296,10 +9536,10 @@
         <v>2</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F240" s="3">
         <v>20</v>
@@ -9317,10 +9557,10 @@
         <v>3</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F241" s="3">
         <v>30</v>
@@ -9338,10 +9578,10 @@
         <v>4</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F242" s="3">
         <v>50</v>
@@ -9359,10 +9599,10 @@
         <v>5</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F243" s="3">
         <v>100</v>
@@ -9380,10 +9620,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F244" s="3">
         <v>10</v>
@@ -9401,10 +9641,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F245" s="3">
         <v>20</v>
@@ -9422,10 +9662,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F246" s="3">
         <v>30</v>
@@ -9443,10 +9683,10 @@
         <v>4</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F247" s="3">
         <v>50</v>
@@ -9464,10 +9704,10 @@
         <v>5</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F248" s="3">
         <v>100</v>
@@ -9485,10 +9725,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F249" s="3">
         <v>10</v>
@@ -9506,10 +9746,10 @@
         <v>2</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F250" s="3">
         <v>20</v>
@@ -9527,10 +9767,10 @@
         <v>3</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F251" s="3">
         <v>30</v>
@@ -9548,10 +9788,10 @@
         <v>4</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F252" s="3">
         <v>50</v>
@@ -9569,10 +9809,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F253" s="3">
         <v>100</v>
@@ -9590,10 +9830,10 @@
         <v>1</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F254" s="3">
         <v>10</v>
@@ -9611,10 +9851,10 @@
         <v>2</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F255" s="3">
         <v>20</v>
@@ -9632,10 +9872,10 @@
         <v>3</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F256" s="3">
         <v>30</v>
@@ -9653,10 +9893,10 @@
         <v>4</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F257" s="3">
         <v>50</v>
@@ -9674,10 +9914,10 @@
         <v>5</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F258" s="3">
         <v>100</v>
@@ -9695,10 +9935,10 @@
         <v>1</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F259" s="3">
         <v>10</v>
@@ -9716,10 +9956,10 @@
         <v>2</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F260" s="3">
         <v>20</v>
@@ -9737,10 +9977,10 @@
         <v>3</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F261" s="3">
         <v>30</v>
@@ -9758,10 +9998,10 @@
         <v>4</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F262" s="3">
         <v>50</v>
@@ -9779,10 +10019,10 @@
         <v>5</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F263" s="3">
         <v>100</v>
@@ -9800,10 +10040,10 @@
         <v>1</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F264" s="3">
         <v>10</v>
@@ -9821,10 +10061,10 @@
         <v>2</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F265" s="3">
         <v>20</v>
@@ -9842,10 +10082,10 @@
         <v>3</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F266" s="3">
         <v>30</v>
@@ -9863,10 +10103,10 @@
         <v>4</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F267" s="3">
         <v>50</v>
@@ -9884,10 +10124,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F268" s="3">
         <v>100</v>
@@ -9905,10 +10145,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F269" s="3">
         <v>10</v>
@@ -9926,10 +10166,10 @@
         <v>2</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F270" s="3">
         <v>20</v>
@@ -9947,10 +10187,10 @@
         <v>3</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F271" s="3">
         <v>30</v>
@@ -9968,10 +10208,10 @@
         <v>4</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F272" s="3">
         <v>50</v>
@@ -9989,10 +10229,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F273" s="3">
         <v>100</v>
@@ -10013,7 +10253,7 @@
         <v>146</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F274" s="3">
         <v>10</v>
@@ -10034,7 +10274,7 @@
         <v>146</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F275" s="3">
         <v>20</v>
@@ -10055,7 +10295,7 @@
         <v>146</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F276" s="3">
         <v>30</v>
@@ -10076,7 +10316,7 @@
         <v>146</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F277" s="3">
         <v>50</v>
@@ -10097,7 +10337,7 @@
         <v>146</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F278" s="3">
         <v>100</v>
@@ -10115,10 +10355,10 @@
         <v>1</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F279" s="3">
         <v>10</v>
@@ -10136,10 +10376,10 @@
         <v>2</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F280" s="3">
         <v>20</v>
@@ -10157,10 +10397,10 @@
         <v>3</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F281" s="3">
         <v>30</v>
@@ -10178,10 +10418,10 @@
         <v>4</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F282" s="3">
         <v>50</v>
@@ -10199,10 +10439,10 @@
         <v>5</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F283" s="3">
         <v>100</v>
@@ -10223,7 +10463,7 @@
         <v>150</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F284" s="3">
         <v>10</v>
@@ -10244,7 +10484,7 @@
         <v>150</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F285" s="3">
         <v>20</v>
@@ -10265,7 +10505,7 @@
         <v>150</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F286" s="3">
         <v>30</v>
@@ -10286,7 +10526,7 @@
         <v>150</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F287" s="3">
         <v>50</v>
@@ -10307,7 +10547,7 @@
         <v>150</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F288" s="3">
         <v>100</v>
@@ -10328,7 +10568,7 @@
         <v>152</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F289" s="3">
         <v>10</v>
@@ -10349,7 +10589,7 @@
         <v>152</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F290" s="3">
         <v>20</v>
@@ -10370,7 +10610,7 @@
         <v>152</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F291" s="3">
         <v>30</v>
@@ -10391,7 +10631,7 @@
         <v>152</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F292" s="3">
         <v>50</v>
@@ -10412,7 +10652,7 @@
         <v>152</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F293" s="3">
         <v>100</v>
@@ -10433,7 +10673,7 @@
         <v>154</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F294" s="3">
         <v>10</v>
@@ -10454,7 +10694,7 @@
         <v>154</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F295" s="3">
         <v>20</v>
@@ -10475,7 +10715,7 @@
         <v>154</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F296" s="3">
         <v>30</v>
@@ -10496,7 +10736,7 @@
         <v>154</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F297" s="3">
         <v>50</v>
@@ -10517,7 +10757,7 @@
         <v>154</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F298" s="3">
         <v>100</v>
@@ -10535,10 +10775,10 @@
         <v>1</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F299" s="3">
         <v>10</v>
@@ -10556,10 +10796,10 @@
         <v>2</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F300" s="3">
         <v>20</v>
@@ -10577,10 +10817,10 @@
         <v>3</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F301" s="3">
         <v>30</v>
@@ -10598,10 +10838,10 @@
         <v>4</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F302" s="3">
         <v>50</v>
@@ -10619,10 +10859,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F303" s="3">
         <v>100</v>
@@ -10640,10 +10880,10 @@
         <v>1</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F304" s="3">
         <v>10</v>
@@ -10661,10 +10901,10 @@
         <v>2</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F305" s="3">
         <v>20</v>
@@ -10682,10 +10922,10 @@
         <v>3</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F306" s="3">
         <v>30</v>
@@ -10703,10 +10943,10 @@
         <v>4</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F307" s="3">
         <v>50</v>
@@ -10724,10 +10964,10 @@
         <v>5</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F308" s="3">
         <v>100</v>
@@ -10745,10 +10985,10 @@
         <v>1</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F309" s="3">
         <v>10</v>
@@ -10766,10 +11006,10 @@
         <v>2</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F310" s="3">
         <v>20</v>
@@ -10787,10 +11027,10 @@
         <v>3</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F311" s="3">
         <v>30</v>
@@ -10808,10 +11048,10 @@
         <v>4</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F312" s="3">
         <v>50</v>
@@ -10829,10 +11069,10 @@
         <v>5</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F313" s="3">
         <v>100</v>
@@ -10850,10 +11090,10 @@
         <v>1</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F314" s="3">
         <v>10</v>
@@ -10871,10 +11111,10 @@
         <v>2</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F315" s="3">
         <v>20</v>
@@ -10892,10 +11132,10 @@
         <v>3</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F316" s="3">
         <v>30</v>
@@ -10913,10 +11153,10 @@
         <v>4</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F317" s="3">
         <v>50</v>
@@ -10934,10 +11174,10 @@
         <v>5</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F318" s="3">
         <v>100</v>
@@ -10955,10 +11195,10 @@
         <v>1</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F319" s="3">
         <v>10</v>
@@ -10976,10 +11216,10 @@
         <v>2</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F320" s="3">
         <v>20</v>
@@ -10997,10 +11237,10 @@
         <v>3</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F321" s="3">
         <v>30</v>
@@ -11018,10 +11258,10 @@
         <v>4</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F322" s="3">
         <v>50</v>
@@ -11039,10 +11279,10 @@
         <v>5</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F323" s="3">
         <v>100</v>
@@ -11060,10 +11300,10 @@
         <v>1</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F324" s="3">
         <v>10</v>
@@ -11081,10 +11321,10 @@
         <v>2</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F325" s="3">
         <v>20</v>
@@ -11102,10 +11342,10 @@
         <v>3</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F326" s="3">
         <v>30</v>
@@ -11123,10 +11363,10 @@
         <v>4</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F327" s="3">
         <v>50</v>
@@ -11144,10 +11384,10 @@
         <v>5</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F328" s="3">
         <v>100</v>
@@ -11165,10 +11405,10 @@
         <v>1</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F329" s="3">
         <v>10</v>
@@ -11186,10 +11426,10 @@
         <v>2</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F330" s="3">
         <v>20</v>
@@ -11207,10 +11447,10 @@
         <v>3</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F331" s="3">
         <v>30</v>
@@ -11228,10 +11468,10 @@
         <v>4</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F332" s="3">
         <v>50</v>
@@ -11249,10 +11489,10 @@
         <v>5</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F333" s="3">
         <v>100</v>
@@ -11270,10 +11510,10 @@
         <v>1</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F334" s="3">
         <v>10</v>
@@ -11291,10 +11531,10 @@
         <v>2</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F335" s="3">
         <v>20</v>
@@ -11312,10 +11552,10 @@
         <v>3</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F336" s="3">
         <v>30</v>
@@ -11333,10 +11573,10 @@
         <v>4</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F337" s="3">
         <v>50</v>
@@ -11354,10 +11594,10 @@
         <v>5</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F338" s="3">
         <v>100</v>
@@ -11375,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F339" s="3">
         <v>10</v>
@@ -11396,10 +11636,10 @@
         <v>2</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F340" s="3">
         <v>20</v>
@@ -11417,10 +11657,10 @@
         <v>3</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F341" s="3">
         <v>30</v>
@@ -11438,10 +11678,10 @@
         <v>4</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F342" s="3">
         <v>50</v>
@@ -11459,10 +11699,10 @@
         <v>5</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F343" s="3">
         <v>100</v>
@@ -11480,10 +11720,10 @@
         <v>1</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F344" s="3">
         <v>10</v>
@@ -11501,10 +11741,10 @@
         <v>2</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F345" s="3">
         <v>20</v>
@@ -11522,10 +11762,10 @@
         <v>3</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F346" s="3">
         <v>30</v>
@@ -11543,10 +11783,10 @@
         <v>4</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F347" s="3">
         <v>50</v>
@@ -11564,10 +11804,10 @@
         <v>5</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F348" s="3">
         <v>100</v>
